--- a/IMPLACAD2020/IMPLACAD - copia.xlsx
+++ b/IMPLACAD2020/IMPLACAD - copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DESARROLLO\CLIENTES\IMPLASER\IMPLACAD2020\IMPLACAD2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78209F0A-1689-4D91-9A68-4B04B10A6ADD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6392C7B-ADAB-465E-AED1-3C96773CCBF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{50B2D206-9114-48E8-AB70-CB4338EDC63B}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12768" xr2:uid="{50B2D206-9114-48E8-AB70-CB4338EDC63B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5856" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5824" uniqueCount="1270">
   <si>
     <t>EV08N</t>
   </si>
@@ -4348,9 +4348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1ED1860-8326-4EFE-BD04-4BD50B5860A5}">
   <dimension ref="A1:J940"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A917" workbookViewId="0">
+      <selection activeCell="D925" sqref="D925:E940"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32522,12 +32521,8 @@
       <c r="C925" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D925" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E925" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D925" s="1"/>
+      <c r="E925" s="1"/>
       <c r="F925" s="1">
         <v>160</v>
       </c>
@@ -32552,12 +32547,8 @@
       <c r="C926" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D926" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E926" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D926" s="1"/>
+      <c r="E926" s="1"/>
       <c r="F926" s="1">
         <v>105</v>
       </c>
@@ -32582,12 +32573,8 @@
       <c r="C927" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D927" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E927" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D927" s="1"/>
+      <c r="E927" s="1"/>
       <c r="F927" s="1">
         <v>148</v>
       </c>
@@ -32612,12 +32599,8 @@
       <c r="C928" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D928" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E928" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D928" s="1"/>
+      <c r="E928" s="1"/>
       <c r="F928" s="1">
         <v>210</v>
       </c>
@@ -32642,12 +32625,8 @@
       <c r="C929" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D929" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E929" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D929" s="1"/>
+      <c r="E929" s="1"/>
       <c r="F929" s="1">
         <v>160</v>
       </c>
@@ -32672,12 +32651,8 @@
       <c r="C930" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D930" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E930" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D930" s="1"/>
+      <c r="E930" s="1"/>
       <c r="F930" s="1">
         <v>105</v>
       </c>
@@ -32702,12 +32677,8 @@
       <c r="C931" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D931" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E931" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D931" s="1"/>
+      <c r="E931" s="1"/>
       <c r="F931" s="1">
         <v>148</v>
       </c>
@@ -32732,12 +32703,8 @@
       <c r="C932" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D932" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E932" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D932" s="1"/>
+      <c r="E932" s="1"/>
       <c r="F932" s="1">
         <v>210</v>
       </c>
@@ -32762,12 +32729,8 @@
       <c r="C933" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D933" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E933" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D933" s="1"/>
+      <c r="E933" s="1"/>
       <c r="F933" s="1">
         <v>160</v>
       </c>
@@ -32792,12 +32755,8 @@
       <c r="C934" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D934" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E934" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D934" s="1"/>
+      <c r="E934" s="1"/>
       <c r="F934" s="1">
         <v>160</v>
       </c>
@@ -32822,12 +32781,8 @@
       <c r="C935" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D935" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E935" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D935" s="1"/>
+      <c r="E935" s="1"/>
       <c r="F935" s="1">
         <v>320</v>
       </c>
@@ -32852,12 +32807,8 @@
       <c r="C936" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D936" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E936" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D936" s="1"/>
+      <c r="E936" s="1"/>
       <c r="F936" s="1">
         <v>320</v>
       </c>
@@ -32882,12 +32833,8 @@
       <c r="C937" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D937" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E937" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D937" s="1"/>
+      <c r="E937" s="1"/>
       <c r="F937" s="1">
         <v>160</v>
       </c>
@@ -32912,12 +32859,8 @@
       <c r="C938" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D938" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E938" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D938" s="1"/>
+      <c r="E938" s="1"/>
       <c r="F938" s="1">
         <v>160</v>
       </c>
@@ -32942,12 +32885,8 @@
       <c r="C939" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D939" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E939" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D939" s="1"/>
+      <c r="E939" s="1"/>
       <c r="F939" s="1">
         <v>160</v>
       </c>
@@ -32972,12 +32911,8 @@
       <c r="C940" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D940" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E940" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D940" s="1"/>
+      <c r="E940" s="1"/>
       <c r="F940" s="1">
         <v>160</v>
       </c>
